--- a/資料/αまでのスケジュール表.xlsx
+++ b/資料/αまでのスケジュール表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="9675" windowHeight="10095"/>
@@ -9,12 +9,49 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162912"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+  <si>
+    <t>超ざっくりとしたスケジュール表</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版作成に向けて</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>１月</t>
     <rPh sb="1" eb="2">
@@ -30,26 +67,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>日程</t>
+    <rPh sb="0" eb="2">
+      <t>ニッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>DS</t>
-  </si>
-  <si>
-    <t>DS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中塚</t>
+    <rPh sb="0" eb="2">
+      <t>ナカツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版完成予定。</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安垣</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスガキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志津野</t>
+    <rPh sb="0" eb="2">
+      <t>シヅ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮脇</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤワキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豊田</t>
+    <rPh sb="0" eb="2">
+      <t>トヨダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PL</t>
-  </si>
-  <si>
-    <t>超ざっくりとしたスケジュール表</t>
-    <rPh sb="0" eb="1">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -60,23 +144,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中塚</t>
+    <t>SVN環境構築</t>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト洗い出し</t>
+    <rPh sb="3" eb="4">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諸々</t>
     <rPh sb="0" eb="2">
-      <t>ナカツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮脇</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤワキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>豊田</t>
-    <rPh sb="0" eb="2">
-      <t>トヨダ</t>
+      <t>モロモロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,40 +178,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PL</t>
-    <phoneticPr fontId="1"/>
+    <t>×</t>
   </si>
   <si>
     <t>？？？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日程</t>
-    <rPh sb="0" eb="2">
-      <t>ニッテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,56 +220,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>α版作成に向けて</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
+    <t>具体的に行う作業の見積もりを立てた場合、ここに記入していきましょう。</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>主に3Dモデリング、モーション</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主に背景</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>安垣</t>
-    <rPh sb="0" eb="2">
-      <t>ヤスガキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>志津野</t>
-    <rPh sb="0" eb="2">
-      <t>シヅ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>諸々</t>
-    <rPh sb="0" eb="2">
-      <t>モロモロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>α版完成予定。</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨテイ</t>
+      <t>ハイケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -231,21 +286,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主に背景</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主に3Dモデリング、モーション</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>PG</t>
   </si>
   <si>
     <t>プログラミング担当。詳細は決まり次第記載</t>
@@ -267,6 +308,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>主に仕様、リスト作成、その他素材集めなども</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>フロー表作成？その他素材集めなども</t>
     <rPh sb="3" eb="4">
       <t>ヒョウ</t>
@@ -282,73 +348,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主に仕様、リスト作成、その他素材集めなども</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>具体的に行う作業の見積もりを立てた場合、ここに記入していきましょう。</t>
-    <rPh sb="0" eb="3">
-      <t>グタイテキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SVN環境構築</t>
-    <rPh sb="3" eb="5">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスト洗い出し</t>
-    <rPh sb="3" eb="4">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -595,6 +594,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,8 +609,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,12 +622,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,7 +707,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,10 +919,10 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
@@ -931,25 +936,25 @@
     <col min="18" max="18" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -960,7 +965,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
       <c r="M4" s="11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -968,11 +973,11 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="17"/>
+    <row r="5" spans="1:18" s="4" customFormat="1">
+      <c r="B5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="18"/>
       <c r="D5" s="14">
         <v>9</v>
       </c>
@@ -1019,9 +1024,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -1040,16 +1045,16 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R6" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1065,14 +1070,14 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1088,14 +1093,14 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="19"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1111,14 +1116,14 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="19"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1134,61 +1139,71 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1207,43 +1222,43 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -1251,61 +1266,61 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="6" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/資料/αまでのスケジュール表.xlsx
+++ b/資料/αまでのスケジュール表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="9675" windowHeight="10095"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>超ざっくりとしたスケジュール表</t>
     <rPh sb="0" eb="1">
@@ -178,9 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>？？？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,6 +345,16 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要書作成</t>
+    <rPh sb="0" eb="3">
+      <t>ガイヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,8 +362,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -482,23 +489,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -536,13 +526,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,16 +591,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -576,7 +606,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -603,13 +633,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -672,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,16 +955,17 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="3.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
@@ -936,99 +973,99 @@
     <col min="18" max="18" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1">
-      <c r="B5" s="18" t="s">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="14">
+      <c r="C5" s="17"/>
+      <c r="D5" s="13">
         <v>9</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>10</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>11</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>16</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>17</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>23</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>24</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>30</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>31</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>6</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>7</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>13</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>14</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>20</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3"/>
@@ -1045,15 +1082,15 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
@@ -1070,13 +1107,13 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="7" t="s">
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
@@ -1093,13 +1130,13 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="7" t="s">
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3"/>
@@ -1116,13 +1153,13 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="7" t="s">
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3"/>
@@ -1139,71 +1176,63 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="7" t="s">
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="B12" s="7" t="s">
+      <c r="F11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1222,111 +1251,112 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="B16" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="R6:R11"/>
+    <mergeCell ref="D12:N12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
